--- a/CSVs/myXL.xlsx
+++ b/CSVs/myXL.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CAProject\DLMtoolkit\UserGuide\CSVs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10470" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10470" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Example1Stock" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Example2Fleet" sheetId="5" r:id="rId5"/>
     <sheet name="Example2Obs" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,9 +47,6 @@
     <t>Vmaxlen</t>
   </si>
   <si>
-    <t>Fsd</t>
-  </si>
-  <si>
     <t>EffYears</t>
   </si>
   <si>
@@ -254,12 +246,15 @@
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>Esd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,12 +614,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -632,7 +627,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -640,7 +635,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>0.35</v>
@@ -651,7 +646,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -662,7 +657,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>-0.25</v>
@@ -673,7 +668,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0.65</v>
@@ -684,7 +679,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -692,7 +687,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>121</v>
@@ -703,7 +698,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>0.16</v>
@@ -714,7 +709,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>-1.86</v>
@@ -725,7 +720,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -736,7 +731,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>-0.25</v>
@@ -747,7 +742,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -758,7 +753,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>-0.25</v>
@@ -769,7 +764,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>-10</v>
@@ -780,7 +775,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1">
         <v>1.34E-5</v>
@@ -788,7 +783,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>3.1065999999999998</v>
@@ -796,7 +791,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>0.05</v>
@@ -807,7 +802,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>81</v>
@@ -818,7 +813,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -829,7 +824,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>0.15</v>
@@ -840,7 +835,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>0.1</v>
@@ -851,7 +846,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>9.5000000000000001E-2</v>
@@ -862,7 +857,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25">
         <v>9.5000000000000001E-2</v>
@@ -873,7 +868,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>0.8</v>
@@ -884,7 +879,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +892,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +959,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -975,7 +970,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -992,7 +987,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1009,7 +1004,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1026,7 +1021,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>-2</v>
@@ -1037,7 +1032,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -1055,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1069,12 +1064,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1085,7 +1080,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -1093,7 +1088,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1104,7 +1099,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -1115,7 +1110,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -1126,7 +1121,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -1137,7 +1132,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -1148,7 +1143,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0.1</v>
@@ -1159,7 +1154,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0.1</v>
@@ -1167,7 +1162,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -1175,7 +1170,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -1183,7 +1178,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -1191,7 +1186,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>0.05</v>
@@ -1199,7 +1194,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>0.05</v>
@@ -1207,7 +1202,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>0.05</v>
@@ -1215,7 +1210,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1223,7 +1218,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1231,7 +1226,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>0.2</v>
@@ -1239,7 +1234,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>0.2</v>
@@ -1247,7 +1242,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>0.5</v>
@@ -1255,7 +1250,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>0.5</v>
@@ -1263,7 +1258,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>0.05</v>
@@ -1274,7 +1269,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>0.33300000000000002</v>
@@ -1285,7 +1280,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>0.2</v>
@@ -1296,7 +1291,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>0.5</v>
@@ -1304,7 +1299,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>0.5</v>
@@ -1315,7 +1310,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>0.2</v>
@@ -1323,7 +1318,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>0.2</v>
@@ -1331,7 +1326,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>0.1</v>
@@ -1339,7 +1334,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>0.1</v>
@@ -1350,7 +1345,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>0.2</v>
@@ -1358,7 +1353,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>0.2</v>
@@ -1366,7 +1361,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>0.5</v>
@@ -1374,7 +1369,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>0.5</v>
@@ -1403,12 +1398,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -1416,7 +1411,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -1424,7 +1419,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>0.35</v>
@@ -1435,7 +1430,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1446,7 +1441,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>-0.25</v>
@@ -1457,7 +1452,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0.65</v>
@@ -1468,7 +1463,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1476,7 +1471,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>121</v>
@@ -1487,7 +1482,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>0.16</v>
@@ -1498,7 +1493,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>-1.86</v>
@@ -1509,7 +1504,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1520,7 +1515,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>-0.25</v>
@@ -1531,7 +1526,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1542,7 +1537,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>-0.25</v>
@@ -1553,7 +1548,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>-10</v>
@@ -1564,7 +1559,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1">
         <v>1.34E-5</v>
@@ -1572,7 +1567,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>3.1065999999999998</v>
@@ -1580,7 +1575,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>0.05</v>
@@ -1591,7 +1586,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>81</v>
@@ -1602,7 +1597,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -1613,7 +1608,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>0.15</v>
@@ -1624,7 +1619,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>0.1</v>
@@ -1635,7 +1630,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>9.5000000000000001E-2</v>
@@ -1646,7 +1641,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25">
         <v>9.5000000000000001E-2</v>
@@ -1657,7 +1652,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>0.8</v>
@@ -1668,7 +1663,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1680,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1743,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -1759,7 +1754,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1776,7 +1771,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1793,7 +1788,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1810,7 +1805,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>-2</v>
@@ -1821,7 +1816,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -1853,12 +1848,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1869,7 +1864,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -1877,7 +1872,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1888,7 +1883,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -1899,7 +1894,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -1910,7 +1905,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -1921,7 +1916,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -1932,7 +1927,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0.1</v>
@@ -1943,7 +1938,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0.1</v>
@@ -1951,7 +1946,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -1959,7 +1954,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -1967,7 +1962,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -1975,7 +1970,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>0.05</v>
@@ -1983,7 +1978,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>0.05</v>
@@ -1991,7 +1986,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>0.05</v>
@@ -1999,7 +1994,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -2007,7 +2002,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -2015,7 +2010,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>0.2</v>
@@ -2023,7 +2018,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>0.2</v>
@@ -2031,7 +2026,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>0.5</v>
@@ -2039,7 +2034,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>0.5</v>
@@ -2047,7 +2042,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>0.05</v>
@@ -2058,7 +2053,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>0.33300000000000002</v>
@@ -2069,7 +2064,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>0.2</v>
@@ -2080,7 +2075,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>0.5</v>
@@ -2088,7 +2083,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>0.5</v>
@@ -2099,7 +2094,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>0.2</v>
@@ -2107,7 +2102,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>0.2</v>
@@ -2115,7 +2110,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>0.1</v>
@@ -2123,7 +2118,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>0.1</v>
@@ -2134,7 +2129,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>0.2</v>
@@ -2142,7 +2137,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>0.2</v>
@@ -2150,7 +2145,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>0.5</v>
@@ -2158,7 +2153,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>0.5</v>

--- a/CSVs/myXL.xlsx
+++ b/CSVs/myXL.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\DLMtool_UserGuide\CSVs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10470" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10470" tabRatio="830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Example1Stock" sheetId="1" r:id="rId1"/>
     <sheet name="Example1Fleet" sheetId="2" r:id="rId2"/>
     <sheet name="Example1Obs" sheetId="3" r:id="rId3"/>
-    <sheet name="Example2Stock" sheetId="4" r:id="rId4"/>
-    <sheet name="Example2Fleet" sheetId="5" r:id="rId5"/>
-    <sheet name="Example2Obs" sheetId="6" r:id="rId6"/>
+    <sheet name="Example1Imp" sheetId="7" r:id="rId4"/>
+    <sheet name="Example2Stock" sheetId="4" r:id="rId5"/>
+    <sheet name="Example2Fleet" sheetId="5" r:id="rId6"/>
+    <sheet name="Example2Obs" sheetId="6" r:id="rId7"/>
+    <sheet name="Example2Imp" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -249,13 +256,37 @@
   </si>
   <si>
     <t>Esd</t>
+  </si>
+  <si>
+    <t>TACSD</t>
+  </si>
+  <si>
+    <t>TACFrac</t>
+  </si>
+  <si>
+    <t>ESD</t>
+  </si>
+  <si>
+    <t>EFrac</t>
+  </si>
+  <si>
+    <t>SizeLimSD</t>
+  </si>
+  <si>
+    <t>SizeLimFrac</t>
+  </si>
+  <si>
+    <t>DLMtool generated</t>
+  </si>
+  <si>
+    <t>Perfect_Imp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,13 +294,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,9 +327,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1385,6 +1431,106 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1671,11 +1817,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1830,7 +1976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
@@ -2165,4 +2311,105 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>